--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_07_beg.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_07_beg.xlsx
@@ -848,7 +848,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Family hierarchy is one unending wordy mess. I still remember how Margaret put it—”This is your... your... you know what, she’s your auntie.”  
+    <t xml:space="preserve">[name="Zofia"]  Family hierarchy is one unending wordy mess. I still remember how Margaret put it—'This is your... your... you know what, she’s your auntie.'  
 </t>
   </si>
   <si>
@@ -860,7 +860,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  I snapped up all this land in one breath. Oh, back then, was I thinking I’d prove myself as well? Prove myself worthy of the “Nearl” name, maybe? Worthy of the Radiant Knight...
+    <t xml:space="preserve">[name="Zofia"]  I snapped up all this land in one breath. Oh, back then, was I thinking I’d prove myself as well? Prove myself worthy of the 'Nearl' name, maybe? Worthy of the Radiant Knight...
 </t>
   </si>
   <si>
@@ -980,7 +980,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Left-hand Knight"]  On the verge of toppling? You really are the image of your “family knighthood,” struggling for breath. 
+    <t xml:space="preserve">[name="Left-hand Knight"]  On the verge of toppling? You really are the image of your 'family knighthood,' struggling for breath. 
 </t>
   </si>
   <si>
@@ -988,7 +988,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  He taunts! He taunts, over and over! A look of disdain and victory in one, aimed square at his opponent! “Left-hand” Tytus will make your blood run cold!   
+    <t xml:space="preserve">[name="Greatmouth Mob"]  He taunts! He taunts, over and over! A look of disdain and victory in one, aimed square at his opponent! 'Left-hand' Tytus will make your blood run cold!   
 </t>
   </si>
   <si>
@@ -1040,7 +1040,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Left-hand Knight"]  I went out of my way to observe “the Nearl family’s new knight,” and every lucky victory of yours was a personal affront to me—look at you. You had the gall to waste my time like this?
+    <t xml:space="preserve">[name="Left-hand Knight"]  I went out of my way to observe 'the Nearl family’s new knight,' and every lucky victory of yours was a personal affront to me—look at you. You had the gall to waste my time like this?
 </t>
   </si>
   <si>
@@ -1068,7 +1068,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Taunting! Pressuring! Destroying! This is “Left-hand” Tytus, mercilessly disposing of the weak!   
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Taunting! Pressuring! Destroying! This is 'Left-hand' Tytus, mercilessly disposing of the weak!   
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_07_beg.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_07_beg.xlsx
@@ -788,7 +788,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  I’ve got to... mm?
+    <t xml:space="preserve">[name="Zofia"]  I've got to... mm?
 </t>
   </si>
   <si>
@@ -812,15 +812,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Mm... light and limber. I’ve missed this feeling.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Servant"]  P-Please be careful! Oh, my, you’ve broken the balustrade again! We just had the stonesmith repair that in the Victorian style last year...  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  Oh, you may as well just have someone renovate the whole place. In fact, you’re in charge of that.
+    <t xml:space="preserve">[name="Zofia"]  Mm... light and limber. I've missed this feeling.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Servant"]  P-Please be careful! Oh, my, you've broken the balustrade again! We just had the stonesmith repair that in the Victorian style last year...  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  Oh, you may as well just have someone renovate the whole place. In fact, you're in charge of that.
 </t>
   </si>
   <si>
@@ -840,31 +840,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  This sword... Maria’s grandfather gave it to me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Servant"]  Miss Maria calls you an aunt, doesn’t she?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  Family hierarchy is one unending wordy mess. I still remember how Margaret put it—'This is your... your... you know what, she’s your auntie.'  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  I’m only about as old as them, aren’t I? Really—auntie? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Servant"]  You’re very young. So young, and managing such a family enterprise. We take great pride in you, Miss Zofia.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  I snapped up all this land in one breath. Oh, back then, was I thinking I’d prove myself as well? Prove myself worthy of the 'Nearl' name, maybe? Worthy of the Radiant Knight...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  No... now’s no time to pine for the past.
+    <t xml:space="preserve">[name="Zofia"]  This sword... Maria's grandfather gave it to me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Servant"]  Miss Maria calls you an aunt, doesn't she?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  Family hierarchy is one unending wordy mess. I still remember how Margaret put it—'This is your... your... you know what, she's your auntie.'  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  I'm only about as old as them, aren't I? Really—auntie? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Servant"]  You're very young. So young, and managing such a family enterprise. We take great pride in you, Miss Zofia.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  I snapped up all this land in one breath. Oh, back then, was I thinking I'd prove myself as well? Prove myself worthy of the 'Nearl' name, maybe? Worthy of the Radiant Knight...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  No... now's no time to pine for the past.
 </t>
   </si>
   <si>
@@ -872,7 +872,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  I think that’s obvious—
+    <t xml:space="preserve">[name="Zofia"]  I think that's obvious—
 </t>
   </si>
   <si>
@@ -884,15 +884,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  Marcin! We’re back! How’s it going?!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Why’s Maria up against someone at that goddamned level? Has the Association gone mad?!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  That’ll be a long story... Are those kids safe?
+    <t xml:space="preserve">[name="Old Knight"]  Marcin! We're back! How's it going?!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  Why's Maria up against someone at that goddamned level? Has the Association gone mad?!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  That'll be a long story... Are those kids safe?
 </t>
   </si>
   <si>
@@ -900,7 +900,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  Never thought I’d see things get so goddarned out of hand...
+    <t xml:space="preserve">[name="Old Knight"]  Never thought I'd see things get so goddarned out of hand...
 </t>
   </si>
   <si>
@@ -908,19 +908,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  Fighters! And the people toying with those Infected for fun—for god’s sakes, they’re all children! Their oldest was only twenty! Youngest was barely—! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Even if they hid themselves in the pipelines, just one full day in city bounds and their safety’d be out the window. Not to mention the crowd we have now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  I got some old friends to look after them, but the Infected are Infected, still. Wish things’d be simple as that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  ...We’re not just picking a fight with the companies, now.
+    <t xml:space="preserve">[name="Old Knight"]  Fighters! And the people toying with those Infected for fun—for god's sakes, they're all children! Their oldest was only twenty! Youngest was barely—! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  Even if they hid themselves in the pipelines, just one full day in city bounds and their safety'd be out the window. Not to mention the crowd we have now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  I got some old friends to look after them, but the Infected are Infected, still. Wish things'd be simple as that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  ...We're not just picking a fight with the companies, now.
 </t>
   </si>
   <si>
@@ -928,31 +928,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Scared?! Wasn’t even scared when the Ursus were holding spears to my mouth! I’m a goddamned Ursus myself!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  Fiddlesticks! When’d the Craftsmen ever get off those city walls?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Huh?! Instead of running up there, you think we should’ve just sat in the smithy and let the catapult smash all of us flat too? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  ...Maria can’t win this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  Aye. The Maria we know facing a foe like that, just ain’t no way she’ll win.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  No, not that there’s no way. I mean she just can’t.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Knights Association have played their hand too hard now. Add in that rotten Czarny popping up, and there’s no way it can go ahead that simple.
+    <t xml:space="preserve">[name="Old Craftsman"]  Scared?! Wasn't even scared when the Ursus were holding spears to my mouth! I'm a goddamned Ursus myself!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  Fiddlesticks! When'd the Craftsmen ever get off those city walls?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  Huh?! Instead of running up there, you think we should've just sat in the smithy and let the catapult smash all of us flat too? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  ...Maria can't win this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  Aye. The Maria we know facing a foe like that, just ain't no way she'll win.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  No, not that there's no way. I mean she just can't.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  Knights Association have played their hand too hard now. Add in that rotten Czarny popping up, and there's no way it can go ahead that simple.
 </t>
   </si>
   <si>
@@ -960,11 +960,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  (My... my arm’s about to dislocate... his spear—I can’t get close at all—)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  (—No, even if I did, there’s still no way I’d win... what do I do...?)
+    <t xml:space="preserve">[name="Maria"]  (My... my arm's about to dislocate... his spear—I can't get close at all—)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  (—No, even if I did, there's still no way I'd win... what do I do...?)
 </t>
   </si>
   <si>
@@ -992,11 +992,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Now the prize pool’s leaning completely one way, and the odds and figures are both out of control! Don’t blink, but the money right now’s gotta be on par with every other arena in Kazimierz combined! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Male Tourist"]  Hey! Give it all you’ve got, Nearl! If you pull it outta the bag somehow, I’ll win enough to buy a whole castle!  
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Now the prize pool's leaning completely one way, and the odds and figures are both out of control! Don't blink, but the money right now's gotta be on par with every other arena in Kazimierz combined! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Male Tourist"]  Hey! Give it all you've got, Nearl! If you pull it outta the bag somehow, I'll win enough to buy a whole castle!  
 </t>
   </si>
   <si>
@@ -1004,7 +1004,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Male Tourist"]  —I put down even more on Left-hand! But I’m making nothing the way this is going, so I’m just hedging my bets a little! 
+    <t xml:space="preserve">[name="Male Tourist"]  —I put down even more on Left-hand! But I'm making nothing the way this is going, so I'm just hedging my bets a little! 
 </t>
   </si>
   <si>
@@ -1020,7 +1020,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Left-hand Knight"]  I won’t kill you. Forfeit. The times of old will not fade for having done so. Abandon this, and you abandon only yourself.
+    <t xml:space="preserve">[name="Left-hand Knight"]  I won't kill you. Forfeit. The times of old will not fade for having done so. Abandon this, and you abandon only yourself.
 </t>
   </si>
   <si>
@@ -1036,11 +1036,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Left-hand Knight"]  I’ve seen footage of your fights. From Szewczyk, through the race, the melee...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Left-hand Knight"]  I went out of my way to observe 'the Nearl family’s new knight,' and every lucky victory of yours was a personal affront to me—look at you. You had the gall to waste my time like this?
+    <t xml:space="preserve">[name="Left-hand Knight"]  I've seen footage of your fights. From Szewczyk, through the race, the melee...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Left-hand Knight"]  I went out of my way to observe 'the Nearl family's new knight,' and every lucky victory of yours was a personal affront to me—look at you. You had the gall to waste my time like this?
 </t>
   </si>
   <si>
@@ -1052,7 +1052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Left-hand Knight"]  Her shining light could drown her opponent’s will. Her sheer passion made me tremble. Her sheer talent made others envy her.
+    <t xml:space="preserve">[name="Left-hand Knight"]  Her shining light could drown her opponent's will. Her sheer passion made me tremble. Her sheer talent made others envy her.
 </t>
   </si>
   <si>
@@ -1060,11 +1060,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Airtime! Tytus has once against sent Maria’s weapon flying!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Oh, man, this loop of devastation is too much bear, but no problem! The arena isn’t just to let flesh and blood fly—it lets knights go on a rampage of pure strength! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Airtime! Tytus has once against sent Maria's weapon flying!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Oh, man, this loop of devastation is too much bear, but no problem! The arena isn't just to let flesh and blood fly—it lets knights go on a rampage of pure strength! 
 </t>
   </si>
   <si>
@@ -1084,7 +1084,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Left-hand Knight"]  The Radiant Knight had not the Black Knight’s strength, nor the Blood Knight’s menace. She went against the lowest tier of the Major, and became champion by no more than a fluke—
+    <t xml:space="preserve">[name="Left-hand Knight"]  The Radiant Knight had not the Black Knight's strength, nor the Blood Knight's menace. She went against the lowest tier of the Major, and became champion by no more than a fluke—
 </t>
   </si>
   <si>
@@ -1116,7 +1116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Left-hand Knight"]  Do not rise again. No matter your armor’s resilience, your pain must be excruciating.
+    <t xml:space="preserve">[name="Left-hand Knight"]  Do not rise again. No matter your armor's resilience, your pain must be excruciating.
 </t>
   </si>
   <si>
